--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1376636666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.412991</v>
+      </c>
+      <c r="I2">
+        <v>0.01821680097623009</v>
+      </c>
+      <c r="J2">
+        <v>0.01821680097623009</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.003455333333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.010366</v>
-      </c>
-      <c r="I2">
-        <v>0.0004491504963533279</v>
-      </c>
-      <c r="J2">
-        <v>0.0004491504963533278</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N2">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="O2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q2">
-        <v>0.0005806514899999999</v>
+        <v>0.01743019337922222</v>
       </c>
       <c r="R2">
-        <v>0.00522586341</v>
+        <v>0.156871740413</v>
       </c>
       <c r="S2">
-        <v>3.842632257851913E-05</v>
+        <v>0.001739961113021553</v>
       </c>
       <c r="T2">
-        <v>3.842632257851913E-05</v>
+        <v>0.001739961113021553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H3">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I3">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J3">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N3">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="O3">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P3">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q3">
-        <v>0.001120672867111111</v>
+        <v>0.04464864056155556</v>
       </c>
       <c r="R3">
-        <v>0.010086055804</v>
+        <v>0.401837765054</v>
       </c>
       <c r="S3">
-        <v>7.416382776629996E-05</v>
+        <v>0.004457030202487063</v>
       </c>
       <c r="T3">
-        <v>7.416382776629996E-05</v>
+        <v>0.004457030202487063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H4">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I4">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J4">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N4">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="O4">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P4">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q4">
-        <v>5.121264711111111E-05</v>
+        <v>0.007770242113444444</v>
       </c>
       <c r="R4">
-        <v>0.000460913824</v>
+        <v>0.069932179021</v>
       </c>
       <c r="S4">
-        <v>3.389147762268587E-06</v>
+        <v>0.0007756608789132685</v>
       </c>
       <c r="T4">
-        <v>3.389147762268587E-06</v>
+        <v>0.0007756608789132685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.003455333333333333</v>
+        <v>0.1376636666666667</v>
       </c>
       <c r="H5">
-        <v>0.010366</v>
+        <v>0.412991</v>
       </c>
       <c r="I5">
-        <v>0.0004491504963533279</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="J5">
-        <v>0.0004491504963533278</v>
+        <v>0.01821680097623009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N5">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="O5">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P5">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q5">
-        <v>0.003925222961555556</v>
+        <v>0.1126391194521111</v>
       </c>
       <c r="R5">
-        <v>0.035327006654</v>
+        <v>1.013752075069</v>
       </c>
       <c r="S5">
-        <v>0.0002597631906762936</v>
+        <v>0.0112441487818082</v>
       </c>
       <c r="T5">
-        <v>0.0002597631906762935</v>
+        <v>0.0112441487818082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H6">
+        <v>21.943935</v>
+      </c>
+      <c r="I6">
+        <v>0.9679346439276632</v>
+      </c>
+      <c r="J6">
+        <v>0.967934643927663</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.003455333333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.010366</v>
-      </c>
-      <c r="I6">
-        <v>0.0004491504963533279</v>
-      </c>
-      <c r="J6">
-        <v>0.0004491504963533278</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.321026</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N6">
-        <v>0.9630780000000001</v>
+        <v>0.379843</v>
       </c>
       <c r="O6">
-        <v>0.163437440603872</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P6">
-        <v>0.163437440603872</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q6">
-        <v>0.001109251838666667</v>
+        <v>0.9261389002449998</v>
       </c>
       <c r="R6">
-        <v>0.009983266548000001</v>
+        <v>8.335250102204999</v>
       </c>
       <c r="S6">
-        <v>7.340800756994665E-05</v>
+        <v>0.09245139377534284</v>
       </c>
       <c r="T6">
-        <v>7.340800756994664E-05</v>
+        <v>0.09245139377534282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>21.943935</v>
       </c>
       <c r="I7">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J7">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.168045</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N7">
-        <v>0.504135</v>
+        <v>0.972994</v>
       </c>
       <c r="O7">
-        <v>0.08555333432892558</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P7">
-        <v>0.08555333432892558</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q7">
-        <v>1.229189519025</v>
+        <v>2.37236856571</v>
       </c>
       <c r="R7">
-        <v>11.062705671225</v>
+        <v>21.35131709139</v>
       </c>
       <c r="S7">
-        <v>0.08134523682732549</v>
+        <v>0.2368206112395014</v>
       </c>
       <c r="T7">
-        <v>0.08134523682732547</v>
+        <v>0.2368206112395014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>21.943935</v>
       </c>
       <c r="I8">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J8">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3243313333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N8">
-        <v>0.9729939999999999</v>
+        <v>0.169331</v>
       </c>
       <c r="O8">
-        <v>0.1651202177631757</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P8">
-        <v>0.1651202177631757</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q8">
-        <v>2.37236856571</v>
+        <v>0.412865384165</v>
       </c>
       <c r="R8">
-        <v>21.35131709138999</v>
+        <v>3.715788457485</v>
       </c>
       <c r="S8">
-        <v>0.1569984773157323</v>
+        <v>0.04121409887604242</v>
       </c>
       <c r="T8">
-        <v>0.1569984773157323</v>
+        <v>0.04121409887604241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +977,45 @@
         <v>21.943935</v>
       </c>
       <c r="I9">
-        <v>0.9508131677788118</v>
+        <v>0.9679346439276632</v>
       </c>
       <c r="J9">
-        <v>0.9508131677788116</v>
+        <v>0.967934643927663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01482133333333333</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N9">
-        <v>0.044464</v>
+        <v>2.454659</v>
       </c>
       <c r="O9">
-        <v>0.007545684107632572</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P9">
-        <v>0.007545684107632572</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q9">
-        <v>0.10841279176</v>
+        <v>5.984986393684999</v>
       </c>
       <c r="R9">
-        <v>0.9757151258399998</v>
+        <v>53.86487754316499</v>
       </c>
       <c r="S9">
-        <v>0.007174535809436362</v>
+        <v>0.5974485400367765</v>
       </c>
       <c r="T9">
-        <v>0.007174535809436361</v>
+        <v>0.5974485400367764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.314644999999999</v>
+        <v>0.104653</v>
       </c>
       <c r="H10">
-        <v>21.943935</v>
+        <v>0.313959</v>
       </c>
       <c r="I10">
-        <v>0.9508131677788118</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J10">
-        <v>0.9508131677788116</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.135989666666667</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N10">
-        <v>3.407969</v>
+        <v>0.379843</v>
       </c>
       <c r="O10">
-        <v>0.5783433231963941</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P10">
-        <v>0.5783433231963941</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q10">
-        <v>8.309361135334999</v>
+        <v>0.01325056982633333</v>
       </c>
       <c r="R10">
-        <v>74.78425021801499</v>
+        <v>0.119255128437</v>
       </c>
       <c r="S10">
-        <v>0.5498964471920886</v>
+        <v>0.001322732096058108</v>
       </c>
       <c r="T10">
-        <v>0.5498964471920886</v>
+        <v>0.001322732096058108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.314644999999999</v>
+        <v>0.104653</v>
       </c>
       <c r="H11">
-        <v>21.943935</v>
+        <v>0.313959</v>
       </c>
       <c r="I11">
-        <v>0.9508131677788118</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J11">
-        <v>0.9508131677788116</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.321026</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N11">
-        <v>0.9630780000000001</v>
+        <v>0.972994</v>
       </c>
       <c r="O11">
-        <v>0.163437440603872</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P11">
-        <v>0.163437440603872</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q11">
-        <v>2.34819122577</v>
+        <v>0.03394224702733333</v>
       </c>
       <c r="R11">
-        <v>21.13372103193</v>
+        <v>0.305480223246</v>
       </c>
       <c r="S11">
-        <v>0.1553984706342289</v>
+        <v>0.003388269345682196</v>
       </c>
       <c r="T11">
-        <v>0.1553984706342289</v>
+        <v>0.003388269345682196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H12">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I12">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J12">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.168045</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N12">
-        <v>0.504135</v>
+        <v>0.169331</v>
       </c>
       <c r="O12">
-        <v>0.08555333432892558</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P12">
-        <v>0.08555333432892558</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q12">
-        <v>0.063006960345</v>
+        <v>0.005906999047666667</v>
       </c>
       <c r="R12">
-        <v>0.567062643105</v>
+        <v>0.053162991429</v>
       </c>
       <c r="S12">
-        <v>0.004169671179021573</v>
+        <v>0.0005896634887509192</v>
       </c>
       <c r="T12">
-        <v>0.004169671179021573</v>
+        <v>0.0005896634887509192</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.374941</v>
+        <v>0.104653</v>
       </c>
       <c r="H13">
-        <v>1.124823</v>
+        <v>0.313959</v>
       </c>
       <c r="I13">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="J13">
-        <v>0.04873768172483497</v>
+        <v>0.01384855509610675</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,214 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3243313333333333</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N13">
-        <v>0.9729939999999999</v>
+        <v>2.454659</v>
       </c>
       <c r="O13">
-        <v>0.1651202177631757</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P13">
-        <v>0.1651202177631757</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q13">
-        <v>0.1216051144513333</v>
+        <v>0.08562914277566666</v>
       </c>
       <c r="R13">
-        <v>1.094446030062</v>
+        <v>0.770662284981</v>
       </c>
       <c r="S13">
-        <v>0.0080475766196771</v>
+        <v>0.008547890165615527</v>
       </c>
       <c r="T13">
-        <v>0.0080475766196771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.374941</v>
-      </c>
-      <c r="H14">
-        <v>1.124823</v>
-      </c>
-      <c r="I14">
-        <v>0.04873768172483497</v>
-      </c>
-      <c r="J14">
-        <v>0.04873768172483497</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.01482133333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.044464</v>
-      </c>
-      <c r="O14">
-        <v>0.007545684107632572</v>
-      </c>
-      <c r="P14">
-        <v>0.007545684107632572</v>
-      </c>
-      <c r="Q14">
-        <v>0.005557125541333333</v>
-      </c>
-      <c r="R14">
-        <v>0.05001412987199999</v>
-      </c>
-      <c r="S14">
-        <v>0.0003677591504339416</v>
-      </c>
-      <c r="T14">
-        <v>0.0003677591504339416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.374941</v>
-      </c>
-      <c r="H15">
-        <v>1.124823</v>
-      </c>
-      <c r="I15">
-        <v>0.04873768172483497</v>
-      </c>
-      <c r="J15">
-        <v>0.04873768172483497</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.135989666666667</v>
-      </c>
-      <c r="N15">
-        <v>3.407969</v>
-      </c>
-      <c r="O15">
-        <v>0.5783433231963941</v>
-      </c>
-      <c r="P15">
-        <v>0.5783433231963941</v>
-      </c>
-      <c r="Q15">
-        <v>0.4259291016096666</v>
-      </c>
-      <c r="R15">
-        <v>3.833361914487</v>
-      </c>
-      <c r="S15">
-        <v>0.02818711281362922</v>
-      </c>
-      <c r="T15">
-        <v>0.02818711281362922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.374941</v>
-      </c>
-      <c r="H16">
-        <v>1.124823</v>
-      </c>
-      <c r="I16">
-        <v>0.04873768172483497</v>
-      </c>
-      <c r="J16">
-        <v>0.04873768172483497</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.321026</v>
-      </c>
-      <c r="N16">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="P16">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="Q16">
-        <v>0.120365809466</v>
-      </c>
-      <c r="R16">
-        <v>1.083292285194</v>
-      </c>
-      <c r="S16">
-        <v>0.007965561962073131</v>
-      </c>
-      <c r="T16">
-        <v>0.007965561962073131</v>
+        <v>0.008547890165615524</v>
       </c>
     </row>
   </sheetData>
